--- a/Basics/Python __name__.xlsx
+++ b/Basics/Python __name__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a290ca/Documents/Projects/Self Learning/Python Programming/Oreilly Object-Oriented Programming in Python /Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44029E-C6B6-C749-A76B-93132B8B4931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5A756-27E9-7346-AF4A-F64E11417818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15160" windowHeight="19120" xr2:uid="{B365C99F-AD9C-544B-9A9B-308798156E9A}"/>
   </bookViews>
